--- a/Mapping_Spreadsheets/05_Roles.xlsx
+++ b/Mapping_Spreadsheets/05_Roles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>Crash Driver Report</t>
   </si>
@@ -79,6 +79,9 @@
     <t>nc:PersonType</t>
   </si>
   <si>
+    <t>element</t>
+  </si>
+  <si>
     <t>A human being.</t>
   </si>
   <si>
@@ -256,90 +259,87 @@
     <t>j:CrashPersonType</t>
   </si>
   <si>
+    <t>role</t>
+  </si>
+  <si>
     <t>A person involved in a traffic accident.</t>
   </si>
   <si>
     <t>j:Crash/j:CrashPerson</t>
   </si>
   <si>
-    <t>nc:RoleOfPerson</t>
+    <t>j:CrashPersonInjury</t>
+  </si>
+  <si>
+    <t>nc:InjuryType</t>
+  </si>
+  <si>
+    <t>An injury received by a person involved in a traffic accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
+  </si>
+  <si>
+    <t>Injury Description</t>
+  </si>
+  <si>
+    <t>A description of an injury.</t>
+  </si>
+  <si>
+    <t>nc:InjuryDescriptionText</t>
+  </si>
+  <si>
+    <t>nc:TextType</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
+  </si>
+  <si>
+    <t>Severity Code</t>
+  </si>
+  <si>
+    <t>A code for how severe an injury was.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Through Window</t>
+  </si>
+  <si>
+    <t>Whether a person was flung through a window by a crash.</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Injury Privacy Code</t>
+  </si>
+  <si>
+    <t>A code for whether and how the information about an injury was private.</t>
+  </si>
+  <si>
+    <t>Crash Location Coordinates</t>
+  </si>
+  <si>
+    <t>Latitude and longitude of a location.</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociationType</t>
+  </si>
+  <si>
+    <t>An association between a person and a charge issued to that person.</t>
+  </si>
+  <si>
+    <t>0..1</t>
   </si>
   <si>
     <t>reference</t>
   </si>
   <si>
-    <t>A person of whom the role object is a function.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/nc:RoleOfPerson</t>
-  </si>
-  <si>
-    <t>j:CrashPersonInjury</t>
-  </si>
-  <si>
-    <t>nc:InjuryType</t>
-  </si>
-  <si>
-    <t>An injury received by a person involved in a traffic accident.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
-  </si>
-  <si>
-    <t>Injury Description</t>
-  </si>
-  <si>
-    <t>A description of an injury.</t>
-  </si>
-  <si>
-    <t>nc:InjuryDescriptionText</t>
-  </si>
-  <si>
-    <t>nc:TextType</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
-  </si>
-  <si>
-    <t>Severity Code</t>
-  </si>
-  <si>
-    <t>A code for how severe an injury was.</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Through Window</t>
-  </si>
-  <si>
-    <t>Whether a person was flung through a window by a crash.</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Injury Privacy Code</t>
-  </si>
-  <si>
-    <t>A code for whether and how the information about an injury was private.</t>
-  </si>
-  <si>
-    <t>Crash Location Coordinates</t>
-  </si>
-  <si>
-    <t>Latitude and longitude of a location.</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociation</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociationType</t>
-  </si>
-  <si>
-    <t>An association between a person and a charge issued to that person.</t>
-  </si>
-  <si>
     <t>j:PersonChargeAssociation/nc:Person</t>
   </si>
   <si>
@@ -352,9 +352,6 @@
     <t>A formal allegation that a specific person has committed a specific offense.</t>
   </si>
   <si>
-    <t>0..1</t>
-  </si>
-  <si>
     <t>j:PersonChargeAssociation/j:Charge</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
   </si>
   <si>
     <t>A committed offense.</t>
-  </si>
-  <si>
-    <t>element</t>
   </si>
   <si>
     <t>Charge Description</t>
@@ -1123,7 +1117,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1153,7 +1146,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1179,7 +1171,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1205,7 +1196,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1231,7 +1221,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1257,7 +1246,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1283,7 +1271,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1309,7 +1296,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1335,7 +1321,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1361,7 +1346,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1412,7 +1396,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1438,7 +1421,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1464,7 +1446,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1490,7 +1471,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1516,7 +1496,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1542,7 +1521,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1568,7 +1546,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1594,7 +1571,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1620,7 +1596,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1646,7 +1621,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1694,7 +1668,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1724,7 +1697,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1750,7 +1722,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1776,7 +1747,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1802,7 +1772,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1828,7 +1797,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1854,7 +1822,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1880,7 +1847,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1906,7 +1872,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1932,7 +1897,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1961,7 +1925,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P33"/>
+  <dimension ref="A2:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2105,9 +2069,11 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="K4" t="s" s="22">
+        <v>22</v>
+      </c>
       <c r="L4" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s" s="22">
         <v>19</v>
@@ -2123,22 +2089,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F5" t="s" s="21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s" s="22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" t="s" s="22">
@@ -2147,7 +2113,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" t="s" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s" s="22">
         <v>19</v>
@@ -2155,7 +2121,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" t="s" s="25">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -2165,17 +2131,17 @@
       <c r="D6" s="17"/>
       <c r="E6" s="28"/>
       <c r="F6" t="s" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" t="s" s="22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" t="s" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s" s="22">
         <v>19</v>
@@ -2183,7 +2149,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" t="s" s="25">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -2193,25 +2159,25 @@
       <c r="D7" s="17"/>
       <c r="E7" s="28"/>
       <c r="F7" t="s" s="21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s" s="22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" t="s" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" t="s" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" t="s" s="25">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -2221,10 +2187,10 @@
       <c r="D8" s="17"/>
       <c r="E8" s="28"/>
       <c r="F8" t="s" s="21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" t="s" s="22">
@@ -2233,7 +2199,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" t="s" s="24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s" s="22">
         <v>19</v>
@@ -2241,7 +2207,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" t="s" s="25">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -2249,31 +2215,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s" s="19">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F9" t="s" s="21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" t="s" s="24">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s" s="22">
         <v>19</v>
@@ -2281,7 +2247,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" t="s" s="25">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -2289,39 +2255,39 @@
         <v>17</v>
       </c>
       <c r="B10" t="s" s="19">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s" s="20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="21">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" t="s" s="24">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s" s="22">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" t="s" s="25">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -2329,31 +2295,31 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="19">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F11" t="s" s="21">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" t="s" s="24">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s" s="22">
         <v>19</v>
@@ -2361,16 +2327,16 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" t="s" s="25">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" t="s" s="18">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s" s="19">
         <v>1</v>
@@ -2379,17 +2345,17 @@
         <v>19</v>
       </c>
       <c r="F12" t="s" s="21">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s" s="22">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" t="s" s="24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s" s="22">
         <v>19</v>
@@ -2397,7 +2363,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" t="s" s="25">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -2407,19 +2373,19 @@
       <c r="D13" s="17"/>
       <c r="E13" s="28"/>
       <c r="F13" t="s" s="21">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s" s="22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" t="s" s="22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" t="s" s="24">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s" s="22">
         <v>19</v>
@@ -2427,7 +2393,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" t="s" s="25">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -2437,17 +2403,17 @@
       <c r="D14" s="17"/>
       <c r="E14" s="28"/>
       <c r="F14" t="s" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" t="s" s="22">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" t="s" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s" s="22">
         <v>19</v>
@@ -2455,54 +2421,54 @@
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" t="s" s="25">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s" s="19">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F15" t="s" s="21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s" s="22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" t="s" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" t="s" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" t="s" s="25">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="16">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" t="s" s="18">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s" s="19">
         <v>1</v>
@@ -2524,16 +2490,16 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="16">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s" s="19">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s" s="18">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s" s="20">
         <v>19</v>
@@ -2552,16 +2518,16 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="16">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s" s="19">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s" s="18">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s" s="20">
         <v>19</v>
@@ -2580,40 +2546,42 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" t="s" s="18">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s" s="19">
         <v>1</v>
       </c>
       <c r="E19" t="s" s="20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="32">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="33">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" t="s" s="33">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="K19" t="s" s="33">
+        <v>82</v>
+      </c>
       <c r="L19" t="s" s="35">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s" s="33">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
       <c r="P19" t="s" s="36">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -2623,21 +2591,19 @@
       <c r="D20" s="17"/>
       <c r="E20" s="28"/>
       <c r="F20" t="s" s="32">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="33">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" t="s" s="33">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J20" s="34"/>
-      <c r="K20" t="s" s="33">
-        <v>84</v>
-      </c>
+      <c r="K20" s="34"/>
       <c r="L20" t="s" s="35">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M20" t="s" s="33">
         <v>19</v>
@@ -2645,29 +2611,39 @@
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" t="s" s="36">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="28"/>
+      <c r="A21" t="s" s="16">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s" s="19">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s" s="18">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s" s="20">
+        <v>19</v>
+      </c>
       <c r="F21" t="s" s="32">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="33">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" t="s" s="33">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" t="s" s="35">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s" s="33">
         <v>19</v>
@@ -2675,61 +2651,49 @@
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
       <c r="P21" t="s" s="36">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s" s="19">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s" s="18">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s" s="19">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="F22" t="s" s="32">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s" s="33">
-        <v>94</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" t="s" s="33">
-        <v>87</v>
-      </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" t="s" s="35">
-        <v>92</v>
-      </c>
-      <c r="M22" t="s" s="33">
-        <v>19</v>
-      </c>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" t="s" s="36">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
+      <c r="F22" s="29"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="31"/>
+    </row>
+    <row r="23" ht="32.05" customHeight="1">
       <c r="A23" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s" s="19">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s" s="18">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s" s="19">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s" s="20">
         <v>19</v>
@@ -2748,16 +2712,16 @@
     </row>
     <row r="24" ht="32.05" customHeight="1">
       <c r="A24" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s" s="19">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s" s="18">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s" s="19">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s" s="20">
         <v>19</v>
@@ -2774,9 +2738,9 @@
       <c r="O24" s="23"/>
       <c r="P24" s="31"/>
     </row>
-    <row r="25" ht="32.05" customHeight="1">
+    <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="16">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s" s="19">
         <v>102</v>
@@ -2785,7 +2749,7 @@
         <v>103</v>
       </c>
       <c r="D25" t="s" s="19">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s" s="20">
         <v>19</v>
@@ -2803,32 +2767,32 @@
       <c r="P25" s="31"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="16">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s" s="19">
+      <c r="A26" s="26"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="28"/>
+      <c r="F26" t="s" s="21">
         <v>104</v>
       </c>
-      <c r="C26" t="s" s="18">
+      <c r="G26" t="s" s="22">
         <v>105</v>
       </c>
-      <c r="D26" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="23"/>
+      <c r="L26" t="s" s="24">
+        <v>106</v>
+      </c>
+      <c r="M26" t="s" s="22">
+        <v>107</v>
+      </c>
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
-      <c r="P26" s="31"/>
+      <c r="P26" t="s" s="25">
+        <v>104</v>
+      </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="26"/>
@@ -2837,17 +2801,21 @@
       <c r="D27" s="17"/>
       <c r="E27" s="28"/>
       <c r="F27" t="s" s="21">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s" s="22">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="I27" t="s" s="22">
+        <v>104</v>
+      </c>
       <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="K27" t="s" s="22">
+        <v>108</v>
+      </c>
       <c r="L27" t="s" s="24">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M27" t="s" s="22">
         <v>19</v>
@@ -2855,31 +2823,31 @@
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
       <c r="P27" t="s" s="25">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="26"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="27"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="28"/>
       <c r="F28" t="s" s="21">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s" s="22">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" t="s" s="22">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" t="s" s="22">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="24">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="M28" t="s" s="22">
         <v>19</v>
@@ -2887,15 +2855,23 @@
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
       <c r="P28" t="s" s="25">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="26"/>
+      <c r="A29" t="s" s="16">
+        <v>114</v>
+      </c>
       <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="28"/>
+      <c r="C29" t="s" s="18">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s" s="20">
+        <v>107</v>
+      </c>
       <c r="F29" t="s" s="21">
         <v>110</v>
       </c>
@@ -2903,53 +2879,53 @@
         <v>111</v>
       </c>
       <c r="H29" s="23"/>
-      <c r="I29" t="s" s="22">
-        <v>106</v>
-      </c>
+      <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" t="s" s="22">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="L29" t="s" s="24">
         <v>112</v>
       </c>
       <c r="M29" t="s" s="22">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" t="s" s="25">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="16">
-        <v>115</v>
-      </c>
-      <c r="B30" s="17"/>
+        <v>114</v>
+      </c>
+      <c r="B30" t="s" s="19">
+        <v>116</v>
+      </c>
       <c r="C30" t="s" s="18">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s" s="19">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s" s="20">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s" s="21">
+        <v>118</v>
+      </c>
+      <c r="G30" t="s" s="22">
+        <v>92</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" t="s" s="22">
         <v>110</v>
       </c>
-      <c r="G30" t="s" s="22">
-        <v>111</v>
-      </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
       <c r="J30" s="23"/>
-      <c r="K30" t="s" s="22">
-        <v>117</v>
-      </c>
+      <c r="K30" s="23"/>
       <c r="L30" t="s" s="24">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M30" t="s" s="22">
         <v>19</v>
@@ -2957,30 +2933,30 @@
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" t="s" s="25">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="16">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s" s="19">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s" s="18">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s" s="19">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F31" t="s" s="21">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s" s="22">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H31" s="23"/>
       <c r="I31" t="s" s="22">
@@ -2989,7 +2965,7 @@
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
       <c r="L31" t="s" s="24">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M31" t="s" s="22">
         <v>19</v>
@@ -2997,76 +2973,36 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" t="s" s="25">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="16">
-        <v>115</v>
-      </c>
-      <c r="B32" t="s" s="19">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s" s="18">
-        <v>124</v>
-      </c>
-      <c r="D32" t="s" s="19">
-        <v>101</v>
-      </c>
-      <c r="E32" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s" s="21">
-        <v>125</v>
-      </c>
-      <c r="G32" t="s" s="22">
-        <v>126</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" t="s" s="22">
-        <v>110</v>
-      </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" t="s" s="24">
+      <c r="A32" t="s" s="37">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s" s="38">
         <v>127</v>
       </c>
-      <c r="M32" t="s" s="22">
-        <v>19</v>
-      </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" t="s" s="25">
+      <c r="C32" t="s" s="39">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="37">
-        <v>115</v>
-      </c>
-      <c r="B33" t="s" s="38">
-        <v>129</v>
-      </c>
-      <c r="C33" t="s" s="39">
-        <v>130</v>
-      </c>
-      <c r="D33" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="E33" t="s" s="40">
-        <v>19</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="44"/>
+      <c r="D32" t="s" s="38">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s" s="40">
+        <v>19</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
